--- a/FASE 2/AVANCE+/Pendientes 24.04.12.xlsx
+++ b/FASE 2/AVANCE+/Pendientes 24.04.12.xlsx
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="94">
   <si>
     <t>Usuario lider</t>
   </si>
@@ -402,6 +402,15 @@
   </si>
   <si>
     <t>Responder consultas pendientes</t>
+  </si>
+  <si>
+    <t>Control de cambios</t>
+  </si>
+  <si>
+    <t>Aprobar control de cambios, de acuerdo a la información de costos enviada</t>
+  </si>
+  <si>
+    <t>Manuel Landa</t>
   </si>
 </sst>
 </file>
@@ -869,10 +878,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2321,6 +2330,34 @@
       </c>
       <c r="J50" s="4" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="8" customFormat="1" ht="30">
+      <c r="A51" s="3"/>
+      <c r="B51" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="21">
+        <v>41016</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" s="22"/>
+      <c r="I51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/FASE 2/AVANCE+/Pendientes 24.04.12.xlsx
+++ b/FASE 2/AVANCE+/Pendientes 24.04.12.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$J$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$J$51</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -494,7 +494,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -568,9 +568,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -880,8 +877,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1104,7 +1101,7 @@
     </row>
     <row r="8" spans="1:10" s="12" customFormat="1" ht="35.25" hidden="1" customHeight="1">
       <c r="A8" s="19"/>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="27" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="9" t="s">
@@ -1130,7 +1127,7 @@
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1" ht="35.25" hidden="1" customHeight="1">
       <c r="A9" s="19"/>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -1156,7 +1153,7 @@
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1" ht="35.25" hidden="1" customHeight="1">
       <c r="A10" s="19"/>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="27" t="s">
         <v>42</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -1186,7 +1183,7 @@
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1" ht="35.25" hidden="1" customHeight="1">
       <c r="A11" s="19"/>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="27" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="9" t="s">
@@ -1212,7 +1209,7 @@
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" ht="35.25" hidden="1" customHeight="1">
       <c r="A12" s="19"/>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="27" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -1238,7 +1235,7 @@
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1" ht="35.25" hidden="1" customHeight="1">
       <c r="A13" s="19"/>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="27" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -1268,7 +1265,7 @@
     </row>
     <row r="14" spans="1:10" s="12" customFormat="1" ht="35.25" hidden="1" customHeight="1">
       <c r="A14" s="19"/>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="27" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -1296,7 +1293,7 @@
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" ht="35.25" hidden="1" customHeight="1">
       <c r="A15" s="19"/>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="27" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -1322,7 +1319,7 @@
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1" ht="35.25" hidden="1" customHeight="1">
       <c r="A16" s="19"/>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="27" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -1348,7 +1345,7 @@
     </row>
     <row r="17" spans="1:10" s="12" customFormat="1" ht="35.25" hidden="1" customHeight="1">
       <c r="A17" s="19"/>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="27" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -1981,7 +1978,7 @@
       <c r="B39" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="26" t="s">
         <v>83</v>
       </c>
       <c r="D39" s="7" t="s">
@@ -2186,7 +2183,7 @@
     </row>
     <row r="46" spans="1:10" s="8" customFormat="1" ht="60" hidden="1">
       <c r="A46" s="3"/>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="27" t="s">
         <v>81</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -2219,7 +2216,7 @@
       <c r="B47" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="26" t="s">
         <v>85</v>
       </c>
       <c r="D47" s="7" t="s">
@@ -2304,7 +2301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="30">
+    <row r="50" spans="1:10" ht="30" hidden="1">
       <c r="A50" s="23"/>
       <c r="B50" s="22" t="s">
         <v>18</v>
@@ -2313,7 +2310,7 @@
         <v>90</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>11</v>
@@ -2324,7 +2321,9 @@
       <c r="G50" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H50" s="26"/>
+      <c r="H50" s="21">
+        <v>41023</v>
+      </c>
       <c r="I50" s="6" t="s">
         <v>16</v>
       </c>
@@ -2361,7 +2360,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J50">
+  <autoFilter ref="A1:J51">
     <filterColumn colId="3">
       <filters>
         <filter val="Pendiente"/>

--- a/FASE 2/AVANCE+/Pendientes 24.04.12.xlsx
+++ b/FASE 2/AVANCE+/Pendientes 24.04.12.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="5805"/>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="96">
   <si>
     <t>Usuario lider</t>
   </si>
@@ -411,6 +411,12 @@
   </si>
   <si>
     <t>Manuel Landa</t>
+  </si>
+  <si>
+    <t>Listado de productos</t>
+  </si>
+  <si>
+    <t>Indicar y confirmar de qué tipo son los productos agregados.</t>
   </si>
 </sst>
 </file>
@@ -875,10 +881,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2357,6 +2363,34 @@
       </c>
       <c r="J51" s="4" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="8" customFormat="1" ht="30">
+      <c r="A52" s="3"/>
+      <c r="B52" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" s="21">
+        <v>41026</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H52" s="22"/>
+      <c r="I52" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
